--- a/StructureDefinition-vl-procedure-info.xlsx
+++ b/StructureDefinition-vl-procedure-info.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/vl-procedure-info</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/StructureDefinition/vl-procedure-info</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T14:41:26+00:00</t>
+    <t>2022-11-24T14:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -977,7 +977,7 @@
     <t>Use Procedure.reasonCode when a code sufficiently describes the reason.  Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/vs-hiv-vl-reason</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/ValueSet/vs-hiv-vl-reason</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1596,7 +1596,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="73.0546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.48828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.83203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
